--- a/Docs/מסלול טיסת רחפן - מעגל.xlsx
+++ b/Docs/מסלול טיסת רחפן - מעגל.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robotics\Ofir Cohen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8F77C3-8DBD-4C3D-9B65-DE395DFD35AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DC2497-247B-4276-A259-06D72B033A68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="129">
   <si>
     <t>LAT1</t>
   </si>
@@ -64,6 +65,357 @@
   </si>
   <si>
     <t>LON</t>
+  </si>
+  <si>
+    <t>{32.63585,</t>
+  </si>
+  <si>
+    <t>{32.63586,</t>
+  </si>
+  <si>
+    <t>{32.63587,</t>
+  </si>
+  <si>
+    <t>{32.63588,</t>
+  </si>
+  <si>
+    <t>{32.63589,</t>
+  </si>
+  <si>
+    <t>{32.63591,</t>
+  </si>
+  <si>
+    <t>{32.63593,</t>
+  </si>
+  <si>
+    <t>{32.63595,</t>
+  </si>
+  <si>
+    <t>{32.63597,</t>
+  </si>
+  <si>
+    <t>{32.63599,</t>
+  </si>
+  <si>
+    <t>{32.63601,</t>
+  </si>
+  <si>
+    <t>{32.63603,</t>
+  </si>
+  <si>
+    <t>{32.63606,</t>
+  </si>
+  <si>
+    <t>{32.63608,</t>
+  </si>
+  <si>
+    <t>{32.63611,</t>
+  </si>
+  <si>
+    <t>{32.63614,</t>
+  </si>
+  <si>
+    <t>{32.63617,</t>
+  </si>
+  <si>
+    <t>{32.63623,</t>
+  </si>
+  <si>
+    <t>{32.63626,</t>
+  </si>
+  <si>
+    <t>{32.63629,</t>
+  </si>
+  <si>
+    <t>{32.63632,</t>
+  </si>
+  <si>
+    <t>{32.63635,</t>
+  </si>
+  <si>
+    <t>{32.63638,</t>
+  </si>
+  <si>
+    <t>{32.63641,</t>
+  </si>
+  <si>
+    <t>{32.63644,</t>
+  </si>
+  <si>
+    <t>{32.63648,</t>
+  </si>
+  <si>
+    <t>{32.63651,</t>
+  </si>
+  <si>
+    <t>{32.63653,</t>
+  </si>
+  <si>
+    <t>{32.63656,</t>
+  </si>
+  <si>
+    <t>{32.63659,</t>
+  </si>
+  <si>
+    <t>{32.63662,</t>
+  </si>
+  <si>
+    <t>{32.63664,</t>
+  </si>
+  <si>
+    <t>{32.63667,</t>
+  </si>
+  <si>
+    <t>{32.63669,</t>
+  </si>
+  <si>
+    <t>{32.63672,</t>
+  </si>
+  <si>
+    <t>{32.63674,</t>
+  </si>
+  <si>
+    <t>{32.63676,</t>
+  </si>
+  <si>
+    <t>{32.63677,</t>
+  </si>
+  <si>
+    <t>{32.63679,</t>
+  </si>
+  <si>
+    <t>{32.63682,</t>
+  </si>
+  <si>
+    <t>{32.63683,</t>
+  </si>
+  <si>
+    <t>{32.63684,</t>
+  </si>
+  <si>
+    <t>{32.63685,</t>
+  </si>
+  <si>
+    <t>{35.04751,</t>
+  </si>
+  <si>
+    <t>{35.04754,</t>
+  </si>
+  <si>
+    <t>{35.04757,</t>
+  </si>
+  <si>
+    <t>{35.04763,</t>
+  </si>
+  <si>
+    <t>{35.04766,</t>
+  </si>
+  <si>
+    <t>{35.04769,</t>
+  </si>
+  <si>
+    <t>{35.04772,</t>
+  </si>
+  <si>
+    <t>{35.04775,</t>
+  </si>
+  <si>
+    <t>{35.04778,</t>
+  </si>
+  <si>
+    <t>{35.04783,</t>
+  </si>
+  <si>
+    <t>{35.04785,</t>
+  </si>
+  <si>
+    <t>{35.04787,</t>
+  </si>
+  <si>
+    <t>{35.04789,</t>
+  </si>
+  <si>
+    <t>{35.04791,</t>
+  </si>
+  <si>
+    <t>{35.04793,</t>
+  </si>
+  <si>
+    <t>{35.04795,</t>
+  </si>
+  <si>
+    <t>{35.04796,</t>
+  </si>
+  <si>
+    <t>{35.04797,</t>
+  </si>
+  <si>
+    <t>{35.04798,</t>
+  </si>
+  <si>
+    <t>{35.04799,</t>
+  </si>
+  <si>
+    <t>{35.04801,</t>
+  </si>
+  <si>
+    <t>35.04754, 470}</t>
+  </si>
+  <si>
+    <t>35.04751, 470},</t>
+  </si>
+  <si>
+    <t>35.04748, 470},</t>
+  </si>
+  <si>
+    <t>35.04745, 470},</t>
+  </si>
+  <si>
+    <t>35.04741, 470},</t>
+  </si>
+  <si>
+    <t>35.04738, 470},</t>
+  </si>
+  <si>
+    <t>35.04735, 470},</t>
+  </si>
+  <si>
+    <t>35.04732, 470},</t>
+  </si>
+  <si>
+    <t>35.04729, 470},</t>
+  </si>
+  <si>
+    <t>35.04727, 470},</t>
+  </si>
+  <si>
+    <t>35.04724, 470},</t>
+  </si>
+  <si>
+    <t>35.04721, 470},</t>
+  </si>
+  <si>
+    <t>35.04719, 470},</t>
+  </si>
+  <si>
+    <t>35.04717, 470},</t>
+  </si>
+  <si>
+    <t>35.04714, 470},</t>
+  </si>
+  <si>
+    <t>35.04712, 470},</t>
+  </si>
+  <si>
+    <t>35.04710, 470},</t>
+  </si>
+  <si>
+    <t>35.04709, 470},</t>
+  </si>
+  <si>
+    <t>35.04707, 470},</t>
+  </si>
+  <si>
+    <t>35.04706, 470},</t>
+  </si>
+  <si>
+    <t>35.04704, 470},</t>
+  </si>
+  <si>
+    <t>35.04703, 470},</t>
+  </si>
+  <si>
+    <t>35.04702, 470},</t>
+  </si>
+  <si>
+    <t>35.04701, 470},</t>
+  </si>
+  <si>
+    <t>35.04754, 470},</t>
+  </si>
+  <si>
+    <t>35.04757, 470},</t>
+  </si>
+  <si>
+    <t>35.04760, 470},</t>
+  </si>
+  <si>
+    <t>35.04763, 470},</t>
+  </si>
+  <si>
+    <t>35.04766, 470},</t>
+  </si>
+  <si>
+    <t>35.04769, 470},</t>
+  </si>
+  <si>
+    <t>35.04772, 470},</t>
+  </si>
+  <si>
+    <t>35.04775, 470},</t>
+  </si>
+  <si>
+    <t>35.04778, 470},</t>
+  </si>
+  <si>
+    <t>35.04780, 470},</t>
+  </si>
+  <si>
+    <t>35.04783, 470},</t>
+  </si>
+  <si>
+    <t>35.04785, 470},</t>
+  </si>
+  <si>
+    <t>35.04787, 470},</t>
+  </si>
+  <si>
+    <t>35.04789, 470},</t>
+  </si>
+  <si>
+    <t>35.04791, 470},</t>
+  </si>
+  <si>
+    <t>35.04793, 470},</t>
+  </si>
+  <si>
+    <t>35.04795, 470},</t>
+  </si>
+  <si>
+    <t>35.04796, 470},</t>
+  </si>
+  <si>
+    <t>35.04797, 470},</t>
+  </si>
+  <si>
+    <t>35.04798, 470},</t>
+  </si>
+  <si>
+    <t>35.04799, 470},</t>
+  </si>
+  <si>
+    <t>35.04800, 470},</t>
+  </si>
+  <si>
+    <t>35.04801, 470},</t>
+  </si>
+  <si>
+    <t>{32.63590,</t>
+  </si>
+  <si>
+    <t>{32.63620,</t>
+  </si>
+  <si>
+    <t>{32.63680,</t>
+  </si>
+  <si>
+    <t>{35.04760,</t>
+  </si>
+  <si>
+    <t>{35.04780,</t>
+  </si>
+  <si>
+    <t>{35.04800,</t>
   </si>
 </sst>
 </file>
@@ -146,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -159,6 +511,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4340,7 +4695,7 @@
   <dimension ref="B1:V41"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6079,8 +6434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A201383-7E23-4753-929C-273938B160D5}">
   <dimension ref="B1:V35"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9023,1344 +9378,1733 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5735487C-D332-4319-95CC-8B759E236C80}">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:C121"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>35.047507000000003</v>
+      </c>
+      <c r="B1">
+        <v>32.636850000000003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>35.047539</v>
+      </c>
+      <c r="B2">
+        <v>32.636848999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>35.04757</v>
+      </c>
+      <c r="B3">
+        <v>32.636845999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>35.047601</v>
+      </c>
+      <c r="B4">
+        <v>32.636842000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>35.047632</v>
+      </c>
+      <c r="B5">
+        <v>32.636834999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>35.047662000000003</v>
+      </c>
+      <c r="B6">
+        <v>32.636825999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>35.047691</v>
+      </c>
+      <c r="B7">
+        <v>32.636814999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>35.047719999999998</v>
+      </c>
+      <c r="B8">
+        <v>32.636803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>35.047747999999999</v>
+      </c>
+      <c r="B9">
+        <v>32.636789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>35.047775000000001</v>
+      </c>
+      <c r="B10">
+        <v>32.636772999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>35.047801</v>
+      </c>
+      <c r="B11">
+        <v>32.636755000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>35.047826000000001</v>
+      </c>
+      <c r="B12">
+        <v>32.636735999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>35.047849999999997</v>
+      </c>
+      <c r="B13">
+        <v>32.636715000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>35.047871999999998</v>
+      </c>
+      <c r="B14">
+        <v>32.636693000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>35.047893000000002</v>
+      </c>
+      <c r="B15">
+        <v>32.636668999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>35.047911999999997</v>
+      </c>
+      <c r="B16">
+        <v>32.636643999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>35.047929000000003</v>
+      </c>
+      <c r="B17">
+        <v>32.636617999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>35.047944999999999</v>
+      </c>
+      <c r="B18">
+        <v>32.636591000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>35.047960000000003</v>
+      </c>
+      <c r="B19">
+        <v>32.636563000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>35.047972000000001</v>
+      </c>
+      <c r="B20">
+        <v>32.636533999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>35.047983000000002</v>
+      </c>
+      <c r="B21">
+        <v>32.636505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>35.047992000000001</v>
+      </c>
+      <c r="B22">
+        <v>32.636474999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>35.047998</v>
+      </c>
+      <c r="B23">
+        <v>32.636443999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>35.048003000000001</v>
+      </c>
+      <c r="B24">
+        <v>32.636412999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>35.048006000000001</v>
+      </c>
+      <c r="B25">
+        <v>32.636381999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>35.048006999999998</v>
+      </c>
+      <c r="B26">
+        <v>32.63635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>35.048006000000001</v>
+      </c>
+      <c r="B27">
+        <v>32.636319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>35.048003000000001</v>
+      </c>
+      <c r="B28">
+        <v>32.636288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>35.047998</v>
+      </c>
+      <c r="B29">
+        <v>32.636257000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>35.047992000000001</v>
+      </c>
+      <c r="B30">
+        <v>32.636226000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>35.047983000000002</v>
+      </c>
+      <c r="B31">
+        <v>32.636195999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>35.047972000000001</v>
+      </c>
+      <c r="B32">
+        <v>32.636166000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>35.047960000000003</v>
+      </c>
+      <c r="B33">
+        <v>32.636138000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>35.047944999999999</v>
+      </c>
+      <c r="B34">
+        <v>32.636110000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35.047929000000003</v>
+      </c>
+      <c r="B35">
+        <v>32.636082000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35.047911999999997</v>
+      </c>
+      <c r="B36">
+        <v>32.636057000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35.047893000000002</v>
+      </c>
+      <c r="B37">
+        <v>32.636032</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35.047871999999998</v>
+      </c>
+      <c r="B38">
+        <v>32.636007999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>35.047849999999997</v>
+      </c>
+      <c r="B39">
+        <v>32.635986000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>35.047826000000001</v>
+      </c>
+      <c r="B40">
+        <v>32.635964999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>35.047801</v>
+      </c>
+      <c r="B41">
+        <v>32.635945999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>35.047775000000001</v>
+      </c>
+      <c r="B42">
+        <v>32.635928</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>35.047747999999999</v>
+      </c>
+      <c r="B43">
+        <v>32.635911999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>35.047719999999998</v>
+      </c>
+      <c r="B44">
+        <v>32.635897999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>35.047691</v>
+      </c>
+      <c r="B45">
+        <v>32.635885999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>35.047662000000003</v>
+      </c>
+      <c r="B46">
+        <v>32.635874999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>35.047632</v>
+      </c>
+      <c r="B47">
+        <v>32.635866</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>35.047601</v>
+      </c>
+      <c r="B48">
+        <v>32.635859000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>35.04757</v>
+      </c>
+      <c r="B49">
+        <v>32.635854000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>35.047539</v>
+      </c>
+      <c r="B50">
+        <v>32.635851000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>35.047507000000003</v>
+      </c>
+      <c r="B51">
+        <v>32.635849999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>35.047476000000003</v>
+      </c>
+      <c r="B52">
+        <v>32.635851000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>35.047445000000003</v>
+      </c>
+      <c r="B53">
+        <v>32.635854000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>35.047414000000003</v>
+      </c>
+      <c r="B54">
+        <v>32.635859000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>35.047383000000004</v>
+      </c>
+      <c r="B55">
+        <v>32.635866</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>35.047353000000001</v>
+      </c>
+      <c r="B56">
+        <v>32.635874999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>35.047322999999999</v>
+      </c>
+      <c r="B57">
+        <v>32.635885999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>35.047294000000001</v>
+      </c>
+      <c r="B58">
+        <v>32.635897999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>35.047266</v>
+      </c>
+      <c r="B59">
+        <v>32.635911999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>35.047238999999998</v>
+      </c>
+      <c r="B60">
+        <v>32.635928</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>35.047212999999999</v>
+      </c>
+      <c r="B61">
+        <v>32.635945999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>35.047189000000003</v>
+      </c>
+      <c r="B62">
+        <v>32.635964999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>35.047165</v>
+      </c>
+      <c r="B63">
+        <v>32.635986000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>35.047142999999998</v>
+      </c>
+      <c r="B64">
+        <v>32.636007999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>35.047122000000002</v>
+      </c>
+      <c r="B65">
+        <v>32.636032</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>35.047103</v>
+      </c>
+      <c r="B66">
+        <v>32.636057000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>35.047085000000003</v>
+      </c>
+      <c r="B67">
+        <v>32.636082000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>35.047069</v>
+      </c>
+      <c r="B68">
+        <v>32.636110000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>35.047055</v>
+      </c>
+      <c r="B69">
+        <v>32.636138000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>35.047041999999998</v>
+      </c>
+      <c r="B70">
+        <v>32.636166000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>35.047032000000002</v>
+      </c>
+      <c r="B71">
+        <v>32.636195999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>35.047023000000003</v>
+      </c>
+      <c r="B72">
+        <v>32.636226000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>35.047015999999999</v>
+      </c>
+      <c r="B73">
+        <v>32.636257000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>35.047010999999998</v>
+      </c>
+      <c r="B74">
+        <v>32.636288</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>35.047007999999998</v>
+      </c>
+      <c r="B75">
+        <v>32.636319</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>35.047007000000001</v>
+      </c>
+      <c r="B76">
+        <v>32.63635</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>35.047007999999998</v>
+      </c>
+      <c r="B77">
+        <v>32.636381999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>35.047010999999998</v>
+      </c>
+      <c r="B78">
+        <v>32.636412999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>35.047015999999999</v>
+      </c>
+      <c r="B79">
+        <v>32.636443999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>35.047023000000003</v>
+      </c>
+      <c r="B80">
+        <v>32.636474999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>35.047032000000002</v>
+      </c>
+      <c r="B81">
+        <v>32.636505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>35.047041999999998</v>
+      </c>
+      <c r="B82">
+        <v>32.636533999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>35.047055</v>
+      </c>
+      <c r="B83">
+        <v>32.636563000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>35.047069</v>
+      </c>
+      <c r="B84">
+        <v>32.636591000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>35.047085000000003</v>
+      </c>
+      <c r="B85">
+        <v>32.636617999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>35.047103</v>
+      </c>
+      <c r="B86">
+        <v>32.636643999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>35.047122000000002</v>
+      </c>
+      <c r="B87">
+        <v>32.636668999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>35.047142999999998</v>
+      </c>
+      <c r="B88">
+        <v>32.636693000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>35.047165</v>
+      </c>
+      <c r="B89">
+        <v>32.636715000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>35.047189000000003</v>
+      </c>
+      <c r="B90">
+        <v>32.636735999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>35.047212999999999</v>
+      </c>
+      <c r="B91">
+        <v>32.636755000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>35.047238999999998</v>
+      </c>
+      <c r="B92">
+        <v>32.636772999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>35.047266</v>
+      </c>
+      <c r="B93">
+        <v>32.636789</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>35.047294000000001</v>
+      </c>
+      <c r="B94">
+        <v>32.636803</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>35.047322999999999</v>
+      </c>
+      <c r="B95">
+        <v>32.636814999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>35.047353000000001</v>
+      </c>
+      <c r="B96">
+        <v>32.636825999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>35.047383000000004</v>
+      </c>
+      <c r="B97">
+        <v>32.636834999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>35.047414000000003</v>
+      </c>
+      <c r="B98">
+        <v>32.636842000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>35.047445000000003</v>
+      </c>
+      <c r="B99">
+        <v>32.636845999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>35.047476000000003</v>
+      </c>
+      <c r="B100">
+        <v>32.636848999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DB07A6-7E2C-4842-AD69-4958CE25C41C}">
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>35.047507299999999</v>
-      </c>
-      <c r="B1">
-        <v>32.6368504</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>35.047533469999998</v>
-      </c>
-      <c r="B2">
-        <v>32.63684971</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>35.047559560000003</v>
-      </c>
-      <c r="B3">
-        <v>32.636847660000001</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
+      <c r="A3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>35.047585519999998</v>
-      </c>
-      <c r="B4">
-        <v>32.636844240000002</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
+      <c r="A4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>35.047611259999996</v>
-      </c>
-      <c r="B5">
-        <v>32.636839469999998</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
+      <c r="A5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>35.047636709999999</v>
-      </c>
-      <c r="B6">
-        <v>32.636833359999997</v>
-      </c>
-      <c r="C6">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="B6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>35.047661810000001</v>
-      </c>
-      <c r="B7">
-        <v>32.636825930000001</v>
-      </c>
-      <c r="C7">
+      <c r="A7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>35.047686480000003</v>
-      </c>
-      <c r="B8">
-        <v>32.636817190000002</v>
-      </c>
-      <c r="C8">
+      <c r="B10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>35.047710670000001</v>
-      </c>
-      <c r="B9">
-        <v>32.636807169999997</v>
-      </c>
-      <c r="C9">
+      <c r="B13" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>35.047734300000002</v>
-      </c>
-      <c r="B10">
-        <v>32.636795900000003</v>
-      </c>
-      <c r="C10">
+      <c r="B16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>35.047757300000001</v>
-      </c>
-      <c r="B11">
-        <v>32.63678341</v>
-      </c>
-      <c r="C11">
+      <c r="B19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>35.04777962</v>
-      </c>
-      <c r="B12">
-        <v>32.636769739999998</v>
-      </c>
-      <c r="C12">
+      <c r="B23" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>35.047801190000001</v>
-      </c>
-      <c r="B13">
-        <v>32.636754910000001</v>
-      </c>
-      <c r="C13">
+      <c r="B26" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>35.04782196</v>
-      </c>
-      <c r="B14">
-        <v>32.636738970000003</v>
-      </c>
-      <c r="C14">
+      <c r="B29" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>35.047841869999999</v>
-      </c>
-      <c r="B15">
-        <v>32.636721970000004</v>
-      </c>
-      <c r="C15">
+      <c r="B32" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>35.047860849999999</v>
-      </c>
-      <c r="B16">
-        <v>32.636703949999998</v>
-      </c>
-      <c r="C16">
+      <c r="B35" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>35.047878869999998</v>
-      </c>
-      <c r="B17">
-        <v>32.636684969999997</v>
-      </c>
-      <c r="C17">
+      <c r="B38" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>35.047895869999998</v>
-      </c>
-      <c r="B18">
-        <v>32.636665059999999</v>
-      </c>
-      <c r="C18">
+      <c r="B41" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="12"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>35.047911810000002</v>
-      </c>
-      <c r="B19">
-        <v>32.63664429</v>
-      </c>
-      <c r="C19">
+      <c r="B45" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="12"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="12"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>35.04792664</v>
-      </c>
-      <c r="B20">
-        <v>32.636622719999998</v>
-      </c>
-      <c r="C20">
+      <c r="B49" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="12"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="12"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="12"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="12"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>35.047940310000001</v>
-      </c>
-      <c r="B21">
-        <v>32.636600399999999</v>
-      </c>
-      <c r="C21">
+      <c r="B53" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="12"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="12"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="12"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="12"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>35.047952799999997</v>
-      </c>
-      <c r="B22">
-        <v>32.6365774</v>
-      </c>
-      <c r="C22">
+      <c r="B57" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="12"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="12"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="12"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>35.047964069999999</v>
-      </c>
-      <c r="B23">
-        <v>32.636553769999999</v>
-      </c>
-      <c r="C23">
+      <c r="B60" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="12"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="12"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="12"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="12"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>35.047974089999997</v>
-      </c>
-      <c r="B24">
-        <v>32.636529580000001</v>
-      </c>
-      <c r="C24">
+      <c r="B64" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="12"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="12"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="12"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>35.047982830000002</v>
-      </c>
-      <c r="B25">
-        <v>32.636504909999999</v>
-      </c>
-      <c r="C25">
+      <c r="B67" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="12"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="12"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="12"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>35.047990259999999</v>
-      </c>
-      <c r="B26">
-        <v>32.636479809999997</v>
-      </c>
-      <c r="C26">
+      <c r="B70" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="12"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="12"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="12"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="12"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="12"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>35.04799637</v>
-      </c>
-      <c r="B27">
-        <v>32.636454360000002</v>
-      </c>
-      <c r="C27">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>35.048001139999997</v>
-      </c>
-      <c r="B28">
-        <v>32.636428619999997</v>
-      </c>
-      <c r="C28">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>35.048004560000003</v>
-      </c>
-      <c r="B29">
-        <v>32.636402660000002</v>
-      </c>
-      <c r="C29">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>35.048006610000002</v>
-      </c>
-      <c r="B30">
-        <v>32.636376570000003</v>
-      </c>
-      <c r="C30">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>35.048007300000002</v>
-      </c>
-      <c r="B31">
-        <v>32.636350399999998</v>
-      </c>
-      <c r="C31">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>35.048006610000002</v>
-      </c>
-      <c r="B32">
-        <v>32.63632423</v>
-      </c>
-      <c r="C32">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>35.048004560000003</v>
-      </c>
-      <c r="B33">
-        <v>32.636298140000001</v>
-      </c>
-      <c r="C33">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>35.048001139999997</v>
-      </c>
-      <c r="B34">
-        <v>32.636272179999999</v>
-      </c>
-      <c r="C34">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>35.04799637</v>
-      </c>
-      <c r="B35">
-        <v>32.636246440000001</v>
-      </c>
-      <c r="C35">
+      <c r="B75" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="12"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="12"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="12"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="12"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="12"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="12"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" s="12"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="12"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" s="12"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="12"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" s="12"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="12"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C87" s="12"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" s="12"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="12"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="12"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" s="12"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="12"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" s="12"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="12"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" s="12"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="12"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" s="12"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35.047990259999999</v>
-      </c>
-      <c r="B36">
-        <v>32.636220989999998</v>
-      </c>
-      <c r="C36">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35.047982830000002</v>
-      </c>
-      <c r="B37">
-        <v>32.636195890000003</v>
-      </c>
-      <c r="C37">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>35.047974089999997</v>
-      </c>
-      <c r="B38">
-        <v>32.636171220000001</v>
-      </c>
-      <c r="C38">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>35.047964069999999</v>
-      </c>
-      <c r="B39">
-        <v>32.636147029999997</v>
-      </c>
-      <c r="C39">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>35.047952799999997</v>
-      </c>
-      <c r="B40">
-        <v>32.636123400000002</v>
-      </c>
-      <c r="C40">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>35.047940310000001</v>
-      </c>
-      <c r="B41">
-        <v>32.636100399999997</v>
-      </c>
-      <c r="C41">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>35.04792664</v>
-      </c>
-      <c r="B42">
-        <v>32.636078079999997</v>
-      </c>
-      <c r="C42">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>35.047911810000002</v>
-      </c>
-      <c r="B43">
-        <v>32.636056510000003</v>
-      </c>
-      <c r="C43">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>35.047895869999998</v>
-      </c>
-      <c r="B44">
-        <v>32.636035739999997</v>
-      </c>
-      <c r="C44">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>35.047878869999998</v>
-      </c>
-      <c r="B45">
-        <v>32.636015829999998</v>
-      </c>
-      <c r="C45">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>35.047860849999999</v>
-      </c>
-      <c r="B46">
-        <v>32.635996849999998</v>
-      </c>
-      <c r="C46">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>35.047841869999999</v>
-      </c>
-      <c r="B47">
-        <v>32.635978829999999</v>
-      </c>
-      <c r="C47">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>35.04782196</v>
-      </c>
-      <c r="B48">
-        <v>32.635961829999999</v>
-      </c>
-      <c r="C48">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>35.047801190000001</v>
-      </c>
-      <c r="B49">
-        <v>32.635945890000002</v>
-      </c>
-      <c r="C49">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>35.04777962</v>
-      </c>
-      <c r="B50">
-        <v>32.635931059999997</v>
-      </c>
-      <c r="C50">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>35.047757300000001</v>
-      </c>
-      <c r="B51">
-        <v>32.635917390000003</v>
-      </c>
-      <c r="C51">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>35.047734300000002</v>
-      </c>
-      <c r="B52">
-        <v>32.6359049</v>
-      </c>
-      <c r="C52">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>35.047710670000001</v>
-      </c>
-      <c r="B53">
-        <v>32.635893629999998</v>
-      </c>
-      <c r="C53">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>35.047686480000003</v>
-      </c>
-      <c r="B54">
-        <v>32.63588361</v>
-      </c>
-      <c r="C54">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>35.047661810000001</v>
-      </c>
-      <c r="B55">
-        <v>32.635874870000002</v>
-      </c>
-      <c r="C55">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>35.047636709999999</v>
-      </c>
-      <c r="B56">
-        <v>32.635867439999998</v>
-      </c>
-      <c r="C56">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>35.047611259999996</v>
-      </c>
-      <c r="B57">
-        <v>32.635861329999997</v>
-      </c>
-      <c r="C57">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>35.047585519999998</v>
-      </c>
-      <c r="B58">
-        <v>32.635856560000001</v>
-      </c>
-      <c r="C58">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>35.047559560000003</v>
-      </c>
-      <c r="B59">
-        <v>32.635853140000002</v>
-      </c>
-      <c r="C59">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>35.047533469999998</v>
-      </c>
-      <c r="B60">
-        <v>32.635851090000003</v>
-      </c>
-      <c r="C60">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>35.047507299999999</v>
-      </c>
-      <c r="B61">
-        <v>32.635850400000002</v>
-      </c>
-      <c r="C61">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>35.047481130000001</v>
-      </c>
-      <c r="B62">
-        <v>32.635851090000003</v>
-      </c>
-      <c r="C62">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>35.047455040000003</v>
-      </c>
-      <c r="B63">
-        <v>32.635853140000002</v>
-      </c>
-      <c r="C63">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>35.047429080000001</v>
-      </c>
-      <c r="B64">
-        <v>32.635856560000001</v>
-      </c>
-      <c r="C64">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>35.047403340000002</v>
-      </c>
-      <c r="B65">
-        <v>32.635861329999997</v>
-      </c>
-      <c r="C65">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>35.04737789</v>
-      </c>
-      <c r="B66">
-        <v>32.635867439999998</v>
-      </c>
-      <c r="C66">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>35.047352789999998</v>
-      </c>
-      <c r="B67">
-        <v>32.635874870000002</v>
-      </c>
-      <c r="C67">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>35.047328120000003</v>
-      </c>
-      <c r="B68">
-        <v>32.63588361</v>
-      </c>
-      <c r="C68">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>35.047303929999998</v>
-      </c>
-      <c r="B69">
-        <v>32.635893629999998</v>
-      </c>
-      <c r="C69">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>35.047280299999997</v>
-      </c>
-      <c r="B70">
-        <v>32.6359049</v>
-      </c>
-      <c r="C70">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>35.047257299999998</v>
-      </c>
-      <c r="B71">
-        <v>32.635917390000003</v>
-      </c>
-      <c r="C71">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>35.047234979999999</v>
-      </c>
-      <c r="B72">
-        <v>32.635931059999997</v>
-      </c>
-      <c r="C72">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>35.047213409999998</v>
-      </c>
-      <c r="B73">
-        <v>32.635945890000002</v>
-      </c>
-      <c r="C73">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>35.047192639999999</v>
-      </c>
-      <c r="B74">
-        <v>32.635961829999999</v>
-      </c>
-      <c r="C74">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>35.04717273</v>
-      </c>
-      <c r="B75">
-        <v>32.635978829999999</v>
-      </c>
-      <c r="C75">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>35.04715375</v>
-      </c>
-      <c r="B76">
-        <v>32.635996849999998</v>
-      </c>
-      <c r="C76">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>35.047135730000001</v>
-      </c>
-      <c r="B77">
-        <v>32.636015829999998</v>
-      </c>
-      <c r="C77">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>35.047118730000001</v>
-      </c>
-      <c r="B78">
-        <v>32.636035739999997</v>
-      </c>
-      <c r="C78">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>35.047102789999997</v>
-      </c>
-      <c r="B79">
-        <v>32.636056510000003</v>
-      </c>
-      <c r="C79">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>35.047087959999999</v>
-      </c>
-      <c r="B80">
-        <v>32.636078079999997</v>
-      </c>
-      <c r="C80">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>35.047074289999998</v>
-      </c>
-      <c r="B81">
-        <v>32.636100399999997</v>
-      </c>
-      <c r="C81">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>35.047061800000002</v>
-      </c>
-      <c r="B82">
-        <v>32.636123400000002</v>
-      </c>
-      <c r="C82">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>35.04705053</v>
-      </c>
-      <c r="B83">
-        <v>32.636147029999997</v>
-      </c>
-      <c r="C83">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>35.047040510000002</v>
-      </c>
-      <c r="B84">
-        <v>32.636171220000001</v>
-      </c>
-      <c r="C84">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>35.047031769999997</v>
-      </c>
-      <c r="B85">
-        <v>32.636195890000003</v>
-      </c>
-      <c r="C85">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>35.04702434</v>
-      </c>
-      <c r="B86">
-        <v>32.636220989999998</v>
-      </c>
-      <c r="C86">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>35.047018229999999</v>
-      </c>
-      <c r="B87">
-        <v>32.636246440000001</v>
-      </c>
-      <c r="C87">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>35.047013460000002</v>
-      </c>
-      <c r="B88">
-        <v>32.636272179999999</v>
-      </c>
-      <c r="C88">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>35.047010040000004</v>
-      </c>
-      <c r="B89">
-        <v>32.636298140000001</v>
-      </c>
-      <c r="C89">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>35.047007989999997</v>
-      </c>
-      <c r="B90">
-        <v>32.63632423</v>
-      </c>
-      <c r="C90">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>35.047007299999997</v>
-      </c>
-      <c r="B91">
-        <v>32.636350399999998</v>
-      </c>
-      <c r="C91">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>35.047007989999997</v>
-      </c>
-      <c r="B92">
-        <v>32.636376570000003</v>
-      </c>
-      <c r="C92">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>35.047010040000004</v>
-      </c>
-      <c r="B93">
-        <v>32.636402660000002</v>
-      </c>
-      <c r="C93">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>35.047013460000002</v>
-      </c>
-      <c r="B94">
-        <v>32.636428619999997</v>
-      </c>
-      <c r="C94">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>35.047018229999999</v>
-      </c>
-      <c r="B95">
-        <v>32.636454360000002</v>
-      </c>
-      <c r="C95">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>35.04702434</v>
-      </c>
-      <c r="B96">
-        <v>32.636479809999997</v>
-      </c>
-      <c r="C96">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>35.047031769999997</v>
-      </c>
-      <c r="B97">
-        <v>32.636504909999999</v>
-      </c>
-      <c r="C97">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>35.047040510000002</v>
-      </c>
-      <c r="B98">
-        <v>32.636529580000001</v>
-      </c>
-      <c r="C98">
-        <v>291</v>
-      </c>
+      <c r="C98" s="12"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>35.04705053</v>
-      </c>
-      <c r="B99">
-        <v>32.636553769999999</v>
-      </c>
-      <c r="C99">
-        <v>294</v>
-      </c>
+      <c r="A99" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" s="12"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>35.047061800000002</v>
-      </c>
-      <c r="B100">
-        <v>32.6365774</v>
-      </c>
-      <c r="C100">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>35.047074289999998</v>
-      </c>
-      <c r="B101">
-        <v>32.636600399999999</v>
-      </c>
-      <c r="C101">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>35.047087959999999</v>
-      </c>
-      <c r="B102">
-        <v>32.636622719999998</v>
-      </c>
-      <c r="C102">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>35.047102789999997</v>
-      </c>
-      <c r="B103">
-        <v>32.63664429</v>
-      </c>
-      <c r="C103">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>35.047118730000001</v>
-      </c>
-      <c r="B104">
-        <v>32.636665059999999</v>
-      </c>
-      <c r="C104">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>35.047135730000001</v>
-      </c>
-      <c r="B105">
-        <v>32.636684969999997</v>
-      </c>
-      <c r="C105">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>35.04715375</v>
-      </c>
-      <c r="B106">
-        <v>32.636703949999998</v>
-      </c>
-      <c r="C106">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>35.04717273</v>
-      </c>
-      <c r="B107">
-        <v>32.636721970000004</v>
-      </c>
-      <c r="C107">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>35.047192639999999</v>
-      </c>
-      <c r="B108">
-        <v>32.636738970000003</v>
-      </c>
-      <c r="C108">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>35.047213409999998</v>
-      </c>
-      <c r="B109">
-        <v>32.636754910000001</v>
-      </c>
-      <c r="C109">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>35.047234979999999</v>
-      </c>
-      <c r="B110">
-        <v>32.636769739999998</v>
-      </c>
-      <c r="C110">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>35.047257299999998</v>
-      </c>
-      <c r="B111">
-        <v>32.63678341</v>
-      </c>
-      <c r="C111">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>35.047280299999997</v>
-      </c>
-      <c r="B112">
-        <v>32.636795900000003</v>
-      </c>
-      <c r="C112">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>35.047303929999998</v>
-      </c>
-      <c r="B113">
-        <v>32.636807169999997</v>
-      </c>
-      <c r="C113">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>35.047328120000003</v>
-      </c>
-      <c r="B114">
-        <v>32.636817190000002</v>
-      </c>
-      <c r="C114">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>35.047352789999998</v>
-      </c>
-      <c r="B115">
-        <v>32.636825930000001</v>
-      </c>
-      <c r="C115">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>35.04737789</v>
-      </c>
-      <c r="B116">
-        <v>32.636833359999997</v>
-      </c>
-      <c r="C116">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>35.047403340000002</v>
-      </c>
-      <c r="B117">
-        <v>32.636839469999998</v>
-      </c>
-      <c r="C117">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>35.047429080000001</v>
-      </c>
-      <c r="B118">
-        <v>32.636844240000002</v>
-      </c>
-      <c r="C118">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>35.047455040000003</v>
-      </c>
-      <c r="B119">
-        <v>32.636847660000001</v>
-      </c>
-      <c r="C119">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>35.047481130000001</v>
-      </c>
-      <c r="B120">
-        <v>32.63684971</v>
-      </c>
-      <c r="C120">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>35.047507299999999</v>
-      </c>
-      <c r="B121">
-        <v>32.6368504</v>
-      </c>
-      <c r="C121">
-        <v>360</v>
-      </c>
+      <c r="A100" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
